--- a/data.xlsx
+++ b/data.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunakkulkarni/PycharmProjects/untitled/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045D3F9-1093-8046-A055-35ED458E6E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Diameter(mm) -Circle</t>
-  </si>
-  <si>
     <t>Time(s) -Circle</t>
   </si>
   <si>
     <t>Time(s) -Sphere</t>
   </si>
+  <si>
+    <t>Diameter(mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +72,1930 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Diameter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Time - Circle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(s) -Circle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.085244144417761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.490366524966362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160.36261356140071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276.67719038039837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424.42453886287439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>603.59976803628433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>814.19997633952858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1056.2232749494431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1329.6683527376911</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1634.53425554925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD55-0E4C-A76F-672E96EF2AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="201643136"/>
+        <c:axId val="202185728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="201643136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202185728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="202185728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201643136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Diameter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Time - Sphere</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(s) -Sphere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>178.02192455367549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1122.071576509747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3456.8509993945609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7809.0861095934806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14802.38385432504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25078.02052248118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39265.462876292273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57975.02181010582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81848.47214689909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111489.6362469242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EF4-3941-B06F-4824AB54874C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="201643136"/>
+        <c:axId val="202185728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="201643136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202185728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="202185728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201643136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD8B077-3011-ED4E-82F9-BF7E92C05865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D85CCD2-B1C6-6E47-8910-9E02EE18FAC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -112,7 +2041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +2073,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +2125,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,127 +2318,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>22.08524414441776</v>
+        <v>22.085244144417761</v>
       </c>
       <c r="C2">
-        <v>178.0219245536755</v>
+        <v>178.02192455367549</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>75.49036652496636</v>
+        <v>75.490366524966362</v>
       </c>
       <c r="C3">
         <v>1122.071576509747</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>160.3626135614007</v>
+        <v>160.36261356140071</v>
       </c>
       <c r="C4">
-        <v>3456.850999394561</v>
+        <v>3456.8509993945609</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>276.6771903803984</v>
+        <v>276.67719038039837</v>
       </c>
       <c r="C5">
-        <v>7809.086109593481</v>
+        <v>7809.0861095934806</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>424.4245388628744</v>
+        <v>424.42453886287439</v>
       </c>
       <c r="C6">
         <v>14802.38385432504</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>603.5997680362843</v>
+        <v>603.59976803628433</v>
       </c>
       <c r="C7">
         <v>25078.02052248118</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>814.1999763395286</v>
+        <v>814.19997633952858</v>
       </c>
       <c r="C8">
-        <v>39265.46287629227</v>
+        <v>39265.462876292273</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9">
-        <v>1056.223274949443</v>
+        <v>1056.2232749494431</v>
       </c>
       <c r="C9">
         <v>57975.02181010582</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
       <c r="B10">
-        <v>1329.668352737691</v>
+        <v>1329.6683527376911</v>
       </c>
       <c r="C10">
         <v>81848.47214689909</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -486,5 +2453,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunakkulkarni/PycharmProjects/untitled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045D3F9-1093-8046-A055-35ED458E6E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A024B1F-0AC5-B54B-93F7-F4D7A309E469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time(s) -Circle</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>Diameter(mm)</t>
+  </si>
+  <si>
+    <t>Spacing - 1mm</t>
+  </si>
+  <si>
+    <t>Velocity of tool - 5mm/s</t>
+  </si>
+  <si>
+    <t>Transition time- .25s</t>
   </si>
 </sst>
 </file>
@@ -2319,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2330,7 +2339,7 @@
     <col min="1" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2340,8 +2349,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2351,8 +2363,11 @@
       <c r="C2">
         <v>178.02192455367549</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -2362,8 +2377,11 @@
       <c r="C3">
         <v>1122.071576509747</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>3456.8509993945609</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -2385,7 +2403,7 @@
         <v>7809.0861095934806</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>14802.38385432504</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>25078.02052248118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>39265.462876292273</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>57975.02181010582</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>81848.47214689909</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
